--- a/deteksi_gejala.xlsx
+++ b/deteksi_gejala.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LK21\Documents\python-UAS_DATA_SCIENCE-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF6FA7A-67CF-4CBB-8B06-39B0776C3430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754363FA-B9DC-4961-80CD-58FA908BF866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2025" yWindow="5115" windowWidth="28800" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="20010" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="16">
   <si>
     <t>50-60</t>
   </si>
@@ -390,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="A1:I15"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -843,6 +854,441 @@
         <v>2</v>
       </c>
     </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" t="s">
+        <v>2</v>
+      </c>
+      <c r="I16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" t="s">
+        <v>2</v>
+      </c>
+      <c r="I17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H18" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" t="s">
+        <v>2</v>
+      </c>
+      <c r="I20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" t="s">
+        <v>2</v>
+      </c>
+      <c r="I21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H22" t="s">
+        <v>2</v>
+      </c>
+      <c r="I22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" t="s">
+        <v>3</v>
+      </c>
+      <c r="H23" t="s">
+        <v>3</v>
+      </c>
+      <c r="I23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" t="s">
+        <v>2</v>
+      </c>
+      <c r="H24" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" t="s">
+        <v>2</v>
+      </c>
+      <c r="H25" t="s">
+        <v>3</v>
+      </c>
+      <c r="I25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" t="s">
+        <v>2</v>
+      </c>
+      <c r="G26" t="s">
+        <v>2</v>
+      </c>
+      <c r="H26" t="s">
+        <v>2</v>
+      </c>
+      <c r="I26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27" t="s">
+        <v>3</v>
+      </c>
+      <c r="H27" t="s">
+        <v>2</v>
+      </c>
+      <c r="I27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" t="s">
+        <v>3</v>
+      </c>
+      <c r="H28" t="s">
+        <v>2</v>
+      </c>
+      <c r="I28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H29" t="s">
+        <v>2</v>
+      </c>
+      <c r="I29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>2</v>
+      </c>
+      <c r="F30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30" t="s">
+        <v>2</v>
+      </c>
+      <c r="H30" t="s">
+        <v>2</v>
+      </c>
+      <c r="I30" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J11">
     <sortCondition ref="J2:J11"/>
